--- a/Code/Results/Cases/Case_5_114/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_114/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.60110704626406</v>
+        <v>26.99883753119549</v>
       </c>
       <c r="C2">
-        <v>11.99079360833464</v>
+        <v>8.855210140476304</v>
       </c>
       <c r="D2">
-        <v>6.746036906718002</v>
+        <v>4.950014309062996</v>
       </c>
       <c r="E2">
-        <v>6.02751801898723</v>
+        <v>9.366722723881587</v>
       </c>
       <c r="F2">
-        <v>67.75288700026078</v>
+        <v>68.30292685251136</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.900746546140803</v>
+        <v>10.29205657185642</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.761461798232765</v>
+        <v>11.32679254332427</v>
       </c>
       <c r="M2">
-        <v>12.90496155775512</v>
+        <v>21.31983020992996</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.48088154915947</v>
+        <v>26.93403177437454</v>
       </c>
       <c r="C3">
-        <v>11.08046446463331</v>
+        <v>8.667509640607653</v>
       </c>
       <c r="D3">
-        <v>6.383072554163027</v>
+        <v>4.80565097320004</v>
       </c>
       <c r="E3">
-        <v>5.96671391199487</v>
+        <v>9.353242005042816</v>
       </c>
       <c r="F3">
-        <v>64.81376591816567</v>
+        <v>67.57095694723468</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.87526443826033</v>
+        <v>10.28563853136761</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.804736359690916</v>
+        <v>11.36752994719768</v>
       </c>
       <c r="M3">
-        <v>12.60753986810529</v>
+        <v>21.36956271853759</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.79115018235631</v>
+        <v>26.90388259944218</v>
       </c>
       <c r="C4">
-        <v>10.4977828914565</v>
+        <v>8.555596636862537</v>
       </c>
       <c r="D4">
-        <v>6.154848854245344</v>
+        <v>4.714771103798433</v>
       </c>
       <c r="E4">
-        <v>5.929740666516325</v>
+        <v>9.344773203179127</v>
       </c>
       <c r="F4">
-        <v>62.99207093148049</v>
+        <v>67.1249201157451</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.860273906199469</v>
+        <v>10.2817020043935</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.835063646306478</v>
+        <v>11.39432731145458</v>
       </c>
       <c r="M4">
-        <v>12.43617482163688</v>
+        <v>21.40543528162797</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.50986410850438</v>
+        <v>26.89402894073325</v>
       </c>
       <c r="C5">
-        <v>10.25418180264398</v>
+        <v>8.510919017923081</v>
       </c>
       <c r="D5">
-        <v>6.060511498143749</v>
+        <v>4.677211216438421</v>
       </c>
       <c r="E5">
-        <v>5.914737082910661</v>
+        <v>9.341273557804998</v>
       </c>
       <c r="F5">
-        <v>62.24573075750508</v>
+        <v>66.94413012048288</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.854310862295618</v>
+        <v>10.28009848419236</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.848338921243871</v>
+        <v>11.40569693194422</v>
       </c>
       <c r="M5">
-        <v>12.36913855448748</v>
+        <v>21.4213929087886</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.4631530727862</v>
+        <v>26.892539827185</v>
       </c>
       <c r="C6">
-        <v>10.21335534328706</v>
+        <v>8.503558944484228</v>
       </c>
       <c r="D6">
-        <v>6.044767039511568</v>
+        <v>4.67094383667379</v>
       </c>
       <c r="E6">
-        <v>5.912248829431467</v>
+        <v>9.340689502033406</v>
       </c>
       <c r="F6">
-        <v>62.12157248920042</v>
+        <v>66.91417232428975</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.853328979156234</v>
+        <v>10.27983224811926</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.850597866371081</v>
+        <v>11.40761201876172</v>
       </c>
       <c r="M6">
-        <v>12.35817518056084</v>
+        <v>21.42412346553763</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.78735712167752</v>
+        <v>26.90373985277548</v>
       </c>
       <c r="C7">
-        <v>10.49452274768051</v>
+        <v>8.554990225492517</v>
       </c>
       <c r="D7">
-        <v>6.153581957972949</v>
+        <v>4.714266634326004</v>
       </c>
       <c r="E7">
-        <v>5.929538100597032</v>
+        <v>9.344726202757657</v>
       </c>
       <c r="F7">
-        <v>62.98202115494797</v>
+        <v>67.1224778204444</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.860192920466492</v>
+        <v>10.28168037667662</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.835239004816929</v>
+        <v>11.39447882517557</v>
       </c>
       <c r="M7">
-        <v>12.43525946737375</v>
+        <v>21.40564507281421</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.2153826657141</v>
+        <v>26.97449698402238</v>
       </c>
       <c r="C8">
-        <v>11.68172039865936</v>
+        <v>8.789852399693308</v>
       </c>
       <c r="D8">
-        <v>6.62200204077217</v>
+        <v>4.900724548217852</v>
       </c>
       <c r="E8">
-        <v>6.006460398076778</v>
+        <v>9.362114114223273</v>
       </c>
       <c r="F8">
-        <v>66.74315753167247</v>
+        <v>68.04991154310419</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.891812135108469</v>
+        <v>10.28984252091186</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.775585533929455</v>
+        <v>11.34046889989908</v>
       </c>
       <c r="M8">
-        <v>12.80005386745902</v>
+        <v>21.33586884454518</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.993538249894</v>
+        <v>27.18926813475657</v>
       </c>
       <c r="C9">
-        <v>13.83104601284963</v>
+        <v>9.27294082656744</v>
       </c>
       <c r="D9">
-        <v>7.498488990657719</v>
+        <v>5.247080012837781</v>
       </c>
       <c r="E9">
-        <v>6.161594403624464</v>
+        <v>9.394708957835221</v>
       </c>
       <c r="F9">
-        <v>73.97828352632052</v>
+        <v>69.89018453783559</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.959993713773025</v>
+        <v>10.30590026089204</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.68982506187877</v>
+        <v>11.24868034554144</v>
       </c>
       <c r="M9">
-        <v>13.60656106619592</v>
+        <v>21.24149060556524</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.0189010880448</v>
+        <v>27.39254815304901</v>
       </c>
       <c r="C10">
-        <v>15.3166685989837</v>
+        <v>9.636371258224372</v>
       </c>
       <c r="D10">
-        <v>8.119078431236254</v>
+        <v>5.487965326197537</v>
       </c>
       <c r="E10">
-        <v>6.280538889465337</v>
+        <v>9.417765620330291</v>
       </c>
       <c r="F10">
-        <v>79.21541202019104</v>
+        <v>71.24811062517445</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.015418417884694</v>
+        <v>10.31775597773338</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.648092680873497</v>
+        <v>11.18980813921342</v>
       </c>
       <c r="M10">
-        <v>14.25832104307189</v>
+        <v>21.19816546756401</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.02911734670877</v>
+        <v>27.49465878587651</v>
       </c>
       <c r="C11">
-        <v>15.97641014241314</v>
+        <v>9.802490193877354</v>
       </c>
       <c r="D11">
-        <v>8.397321110341796</v>
+        <v>5.59427137880629</v>
       </c>
       <c r="E11">
-        <v>6.336382804566837</v>
+        <v>9.42806680889268</v>
       </c>
       <c r="F11">
-        <v>81.586790721875</v>
+        <v>71.86558032317392</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.042213034818006</v>
+        <v>10.32316779890947</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.634321682417903</v>
+        <v>11.16487592193097</v>
       </c>
       <c r="M11">
-        <v>14.56894589988973</v>
+        <v>21.18412688121849</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.42060698224977</v>
+        <v>27.53468636228564</v>
       </c>
       <c r="C12">
-        <v>16.22434776269771</v>
+        <v>9.865425677904579</v>
       </c>
       <c r="D12">
-        <v>8.502219072866387</v>
+        <v>5.634031928620073</v>
       </c>
       <c r="E12">
-        <v>6.357846573475888</v>
+        <v>9.431941066133207</v>
       </c>
       <c r="F12">
-        <v>82.48400829996135</v>
+        <v>72.09923139851944</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.052629574073818</v>
+        <v>10.32522023419793</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.629915632609209</v>
+        <v>11.15569992257175</v>
       </c>
       <c r="M12">
-        <v>14.68875546241543</v>
+        <v>21.17962741773693</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.33637752820208</v>
+        <v>27.52600563102484</v>
       </c>
       <c r="C13">
-        <v>16.17102663623865</v>
+        <v>9.851871359145756</v>
       </c>
       <c r="D13">
-        <v>8.479645925505396</v>
+        <v>5.625491171586539</v>
       </c>
       <c r="E13">
-        <v>6.353208658010042</v>
+        <v>9.431107851751547</v>
       </c>
       <c r="F13">
-        <v>82.29079463144269</v>
+        <v>72.04892020073628</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.050373418827125</v>
+        <v>10.32477806111901</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.630827545227694</v>
+        <v>11.15766434874583</v>
       </c>
       <c r="M13">
-        <v>14.66285234462245</v>
+        <v>21.18056012082152</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.06136447333582</v>
+        <v>27.49792476702428</v>
       </c>
       <c r="C14">
-        <v>15.99684337498354</v>
+        <v>9.807667801631878</v>
       </c>
       <c r="D14">
-        <v>8.40595968192973</v>
+        <v>5.597552559715967</v>
       </c>
       <c r="E14">
-        <v>6.338141857956622</v>
+        <v>9.428386076934611</v>
       </c>
       <c r="F14">
-        <v>81.66061510780753</v>
+        <v>71.88480713514173</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.043064327994802</v>
+        <v>10.3233365895254</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.633942614489272</v>
+        <v>11.16411569351641</v>
       </c>
       <c r="M14">
-        <v>14.57875792944582</v>
+        <v>21.18374033489757</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.89265322689236</v>
+        <v>27.48090080556677</v>
       </c>
       <c r="C15">
-        <v>15.88991838300552</v>
+        <v>9.780593313405596</v>
       </c>
       <c r="D15">
-        <v>8.360768053867448</v>
+        <v>5.580374175072746</v>
       </c>
       <c r="E15">
-        <v>6.328956498451204</v>
+        <v>9.426715460846314</v>
       </c>
       <c r="F15">
-        <v>81.27454058595404</v>
+        <v>71.78425687328121</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.038623851059972</v>
+        <v>10.32245406228908</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.635957914991359</v>
+        <v>11.16810185952449</v>
       </c>
       <c r="M15">
-        <v>14.52753718780776</v>
+        <v>21.18579469056892</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.95878496846225</v>
+        <v>27.38606680719507</v>
       </c>
       <c r="C16">
-        <v>15.27326369172034</v>
+        <v>9.625523651884238</v>
       </c>
       <c r="D16">
-        <v>8.100822158948695</v>
+        <v>5.480949946971564</v>
       </c>
       <c r="E16">
-        <v>6.276929747252462</v>
+        <v>9.417088673912767</v>
       </c>
       <c r="F16">
-        <v>79.06027795386979</v>
+        <v>71.20774084045061</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.013702627193733</v>
+        <v>10.31740271275288</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.649102397640136</v>
+        <v>11.19147467410635</v>
       </c>
       <c r="M16">
-        <v>14.23831719370173</v>
+        <v>21.19919713880705</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.43178505936531</v>
+        <v>27.33034042811834</v>
       </c>
       <c r="C17">
-        <v>14.89112522513978</v>
+        <v>9.530535201172407</v>
       </c>
       <c r="D17">
-        <v>7.940386308894</v>
+        <v>5.419099659470142</v>
       </c>
       <c r="E17">
-        <v>6.245501526839702</v>
+        <v>9.411135215614971</v>
       </c>
       <c r="F17">
-        <v>77.69956539185365</v>
+        <v>70.85390506350284</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.99884742270507</v>
+        <v>10.31430893642233</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.658540622566364</v>
+        <v>11.20628629167099</v>
       </c>
       <c r="M17">
-        <v>14.06460316164616</v>
+        <v>21.2088724095212</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.12848998400454</v>
+        <v>27.29919691311223</v>
       </c>
       <c r="C18">
-        <v>14.6697872514748</v>
+        <v>9.475979732572746</v>
       </c>
       <c r="D18">
-        <v>7.84771617350123</v>
+        <v>5.383218151834765</v>
       </c>
       <c r="E18">
-        <v>6.227583491631742</v>
+        <v>9.407693282455156</v>
       </c>
       <c r="F18">
-        <v>76.91581743445977</v>
+        <v>70.65037180860408</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.990449039940517</v>
+        <v>10.31253120320314</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.664455916989388</v>
+        <v>11.21497961817064</v>
       </c>
       <c r="M18">
-        <v>13.96600658632273</v>
+        <v>21.21497102568528</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.02576178704034</v>
+        <v>27.28880907440458</v>
       </c>
       <c r="C19">
-        <v>14.59456952932513</v>
+        <v>9.457524456576463</v>
       </c>
       <c r="D19">
-        <v>7.816269305666988</v>
+        <v>5.371017374245198</v>
       </c>
       <c r="E19">
-        <v>6.221542151731811</v>
+        <v>9.406524858460392</v>
       </c>
       <c r="F19">
-        <v>76.65024449624244</v>
+        <v>70.58146025939085</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.987629375564833</v>
+        <v>10.31192957672932</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.666540665113253</v>
+        <v>11.21795294534452</v>
       </c>
       <c r="M19">
-        <v>13.93284621473515</v>
+        <v>21.21712752355874</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.4879018346653</v>
+        <v>27.33617871176682</v>
       </c>
       <c r="C20">
-        <v>14.93196130032885</v>
+        <v>9.54063929237627</v>
       </c>
       <c r="D20">
-        <v>7.957504762651935</v>
+        <v>5.425715672132341</v>
       </c>
       <c r="E20">
-        <v>6.248830248023092</v>
+        <v>9.411770796634006</v>
       </c>
       <c r="F20">
-        <v>77.84452467012926</v>
+        <v>70.8915741466373</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.00041339527558</v>
+        <v>10.31463809259729</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.65748513886424</v>
+        <v>11.20469155791006</v>
       </c>
       <c r="M20">
-        <v>14.08295785243718</v>
+        <v>21.20778721868632</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.14219522648143</v>
+        <v>27.50613608926698</v>
       </c>
       <c r="C21">
-        <v>16.04805286302257</v>
+        <v>9.820651295967172</v>
       </c>
       <c r="D21">
-        <v>8.427614670246387</v>
+        <v>5.605772430462132</v>
       </c>
       <c r="E21">
-        <v>6.342558139662325</v>
+        <v>9.429186246581798</v>
       </c>
       <c r="F21">
-        <v>81.84572710477522</v>
+        <v>71.93301683302118</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.045203480877098</v>
+        <v>10.32375989728374</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.63300517757674</v>
+        <v>11.16221358198017</v>
       </c>
       <c r="M21">
-        <v>14.60339782518518</v>
+        <v>21.18278405710356</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.27835599034761</v>
+        <v>27.62512947706033</v>
       </c>
       <c r="C22">
-        <v>16.76670565074984</v>
+        <v>10.00379357003603</v>
       </c>
       <c r="D22">
-        <v>8.732219491132403</v>
+        <v>5.720553678965401</v>
       </c>
       <c r="E22">
-        <v>6.405703248979188</v>
+        <v>9.440413497980039</v>
       </c>
       <c r="F22">
-        <v>84.45684526768632</v>
+        <v>72.61260016147482</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.076075676046448</v>
+        <v>10.32973976651244</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.621754489067589</v>
+        <v>11.13599781575587</v>
       </c>
       <c r="M22">
-        <v>14.95636467189564</v>
+        <v>21.17120340558029</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.67287544808891</v>
+        <v>27.56090516870066</v>
       </c>
       <c r="C23">
-        <v>16.38397446681667</v>
+        <v>9.906061046901856</v>
       </c>
       <c r="D23">
-        <v>8.56983959515293</v>
+        <v>5.659565205970572</v>
       </c>
       <c r="E23">
-        <v>6.371802851475018</v>
+        <v>9.434435340030213</v>
       </c>
       <c r="F23">
-        <v>83.06325035247581</v>
+        <v>72.25003469091536</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.05943615575706</v>
+        <v>10.32654638898513</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.627302676640192</v>
+        <v>11.14984839454324</v>
       </c>
       <c r="M23">
-        <v>14.76674295347989</v>
+        <v>21.17694831830817</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.46253244516098</v>
+        <v>27.33353643622205</v>
       </c>
       <c r="C24">
-        <v>14.91350445411472</v>
+        <v>9.536071056064698</v>
       </c>
       <c r="D24">
-        <v>7.949766868157937</v>
+        <v>5.422725576852026</v>
       </c>
       <c r="E24">
-        <v>6.24732486936694</v>
+        <v>9.411483510320135</v>
       </c>
       <c r="F24">
-        <v>77.77899317338452</v>
+        <v>70.87454428145514</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.999704979652993</v>
+        <v>10.31448927825693</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.657960803869512</v>
+        <v>11.20541198278487</v>
       </c>
       <c r="M24">
-        <v>14.07465573937399</v>
+        <v>21.20827616350069</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.24495574386203</v>
+        <v>27.1231050211084</v>
       </c>
       <c r="C25">
-        <v>13.26726953583205</v>
+        <v>9.140387942764203</v>
       </c>
       <c r="D25">
-        <v>7.265729436577893</v>
+        <v>5.155645772767656</v>
       </c>
       <c r="E25">
-        <v>6.118947165596636</v>
+        <v>9.386049453645583</v>
       </c>
       <c r="F25">
-        <v>72.03601685446498</v>
+        <v>69.39077857013342</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.94073911554518</v>
+        <v>10.301547929988</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.709469290160953</v>
+        <v>11.27200423760324</v>
       </c>
       <c r="M25">
-        <v>13.37830991836949</v>
+        <v>21.26246242929763</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_114/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_114/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.99883753119549</v>
+        <v>21.60110704626407</v>
       </c>
       <c r="C2">
-        <v>8.855210140476304</v>
+        <v>11.99079360833447</v>
       </c>
       <c r="D2">
-        <v>4.950014309062996</v>
+        <v>6.746036906717954</v>
       </c>
       <c r="E2">
-        <v>9.366722723881587</v>
+        <v>6.027518018987166</v>
       </c>
       <c r="F2">
-        <v>68.30292685251136</v>
+        <v>67.75288700026054</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.29205657185642</v>
+        <v>6.900746546140718</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.32679254332427</v>
+        <v>5.761461798232837</v>
       </c>
       <c r="M2">
-        <v>21.31983020992996</v>
+        <v>12.90496155775511</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.93403177437454</v>
+        <v>20.48088154915946</v>
       </c>
       <c r="C3">
-        <v>8.667509640607653</v>
+        <v>11.08046446463324</v>
       </c>
       <c r="D3">
-        <v>4.80565097320004</v>
+        <v>6.383072554163048</v>
       </c>
       <c r="E3">
-        <v>9.353242005042816</v>
+        <v>5.966713911994803</v>
       </c>
       <c r="F3">
-        <v>67.57095694723468</v>
+        <v>64.81376591816571</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.28563853136761</v>
+        <v>6.875264438260302</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.36752994719768</v>
+        <v>5.804736359690886</v>
       </c>
       <c r="M3">
-        <v>21.36956271853759</v>
+        <v>12.60753986810526</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.90388259944218</v>
+        <v>19.79115018235628</v>
       </c>
       <c r="C4">
-        <v>8.555596636862537</v>
+        <v>10.49778289145641</v>
       </c>
       <c r="D4">
-        <v>4.714771103798433</v>
+        <v>6.15484885424536</v>
       </c>
       <c r="E4">
-        <v>9.344773203179127</v>
+        <v>5.929740666516391</v>
       </c>
       <c r="F4">
-        <v>67.1249201157451</v>
+        <v>62.99207093148082</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.2817020043935</v>
+        <v>6.860273906199454</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.39432731145458</v>
+        <v>5.835063646306538</v>
       </c>
       <c r="M4">
-        <v>21.40543528162797</v>
+        <v>12.4361748216369</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.89402894073325</v>
+        <v>19.50986410850455</v>
       </c>
       <c r="C5">
-        <v>8.510919017923081</v>
+        <v>10.25418180264397</v>
       </c>
       <c r="D5">
-        <v>4.677211216438421</v>
+        <v>6.060511498143714</v>
       </c>
       <c r="E5">
-        <v>9.341273557804998</v>
+        <v>5.914737082910593</v>
       </c>
       <c r="F5">
-        <v>66.94413012048288</v>
+        <v>62.24573075750516</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.28009848419236</v>
+        <v>6.854310862295724</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.40569693194422</v>
+        <v>5.848338921243867</v>
       </c>
       <c r="M5">
-        <v>21.4213929087886</v>
+        <v>12.36913855448764</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.892539827185</v>
+        <v>19.46315307278621</v>
       </c>
       <c r="C6">
-        <v>8.503558944484228</v>
+        <v>10.21335534328724</v>
       </c>
       <c r="D6">
-        <v>4.67094383667379</v>
+        <v>6.044767039511517</v>
       </c>
       <c r="E6">
-        <v>9.340689502033406</v>
+        <v>5.912248829431734</v>
       </c>
       <c r="F6">
-        <v>66.91417232428975</v>
+        <v>62.1215724892004</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.27983224811926</v>
+        <v>6.853328979156364</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.40761201876172</v>
+        <v>5.850597866371188</v>
       </c>
       <c r="M6">
-        <v>21.42412346553763</v>
+        <v>12.35817518056089</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.90373985277548</v>
+        <v>19.78735712167749</v>
       </c>
       <c r="C7">
-        <v>8.554990225492517</v>
+        <v>10.49452274768024</v>
       </c>
       <c r="D7">
-        <v>4.714266634326004</v>
+        <v>6.153581957972926</v>
       </c>
       <c r="E7">
-        <v>9.344726202757657</v>
+        <v>5.929538100597099</v>
       </c>
       <c r="F7">
-        <v>67.1224778204444</v>
+        <v>62.98202115494792</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.28168037667662</v>
+        <v>6.860192920466611</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.39447882517557</v>
+        <v>5.835239004817057</v>
       </c>
       <c r="M7">
-        <v>21.40564507281421</v>
+        <v>12.4352594673738</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.97449698402238</v>
+        <v>21.21538266571415</v>
       </c>
       <c r="C8">
-        <v>8.789852399693308</v>
+        <v>11.68172039865932</v>
       </c>
       <c r="D8">
-        <v>4.900724548217852</v>
+        <v>6.622002040772136</v>
       </c>
       <c r="E8">
-        <v>9.362114114223273</v>
+        <v>6.00646039807671</v>
       </c>
       <c r="F8">
-        <v>68.04991154310419</v>
+        <v>66.74315753167259</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.28984252091186</v>
+        <v>6.891812135108434</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.34046889989908</v>
+        <v>5.775585533929418</v>
       </c>
       <c r="M8">
-        <v>21.33586884454518</v>
+        <v>12.80005386745909</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.18926813475657</v>
+        <v>23.99353824989399</v>
       </c>
       <c r="C9">
-        <v>9.27294082656744</v>
+        <v>13.83104601284954</v>
       </c>
       <c r="D9">
-        <v>5.247080012837781</v>
+        <v>7.49848899065772</v>
       </c>
       <c r="E9">
-        <v>9.394708957835221</v>
+        <v>6.161594403624396</v>
       </c>
       <c r="F9">
-        <v>69.89018453783559</v>
+        <v>73.97828352632045</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.30590026089204</v>
+        <v>6.959993713773045</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.24868034554144</v>
+        <v>5.689825061878738</v>
       </c>
       <c r="M9">
-        <v>21.24149060556524</v>
+        <v>13.60656106619592</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.39254815304901</v>
+        <v>26.01890108804482</v>
       </c>
       <c r="C10">
-        <v>9.636371258224372</v>
+        <v>15.31666859898372</v>
       </c>
       <c r="D10">
-        <v>5.487965326197537</v>
+        <v>8.119078431236337</v>
       </c>
       <c r="E10">
-        <v>9.417765620330291</v>
+        <v>6.280538889465337</v>
       </c>
       <c r="F10">
-        <v>71.24811062517445</v>
+        <v>79.21541202019118</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.31775597773338</v>
+        <v>7.015418417884772</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.18980813921342</v>
+        <v>5.648092680873526</v>
       </c>
       <c r="M10">
-        <v>21.19816546756401</v>
+        <v>14.25832104307189</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.49465878587651</v>
+        <v>27.02911734670865</v>
       </c>
       <c r="C11">
-        <v>9.802490193877354</v>
+        <v>15.97641014241314</v>
       </c>
       <c r="D11">
-        <v>5.59427137880629</v>
+        <v>8.397321110341725</v>
       </c>
       <c r="E11">
-        <v>9.42806680889268</v>
+        <v>6.336382804566636</v>
       </c>
       <c r="F11">
-        <v>71.86558032317392</v>
+        <v>81.58679072187465</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.32316779890947</v>
+        <v>7.042213034817987</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.16487592193097</v>
+        <v>5.634321682417884</v>
       </c>
       <c r="M11">
-        <v>21.18412688121849</v>
+        <v>14.56894589988979</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.53468636228564</v>
+        <v>27.42060698224968</v>
       </c>
       <c r="C12">
-        <v>9.865425677904579</v>
+        <v>16.22434776269784</v>
       </c>
       <c r="D12">
-        <v>5.634031928620073</v>
+        <v>8.502219072866257</v>
       </c>
       <c r="E12">
-        <v>9.431941066133207</v>
+        <v>6.357846573475821</v>
       </c>
       <c r="F12">
-        <v>72.09923139851944</v>
+        <v>82.48400829996127</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.32522023419793</v>
+        <v>7.052629574073762</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.15569992257175</v>
+        <v>5.62991563260919</v>
       </c>
       <c r="M12">
-        <v>21.17962741773693</v>
+        <v>14.68875546241545</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.52600563102484</v>
+        <v>27.33637752820191</v>
       </c>
       <c r="C13">
-        <v>9.851871359145756</v>
+        <v>16.17102663623892</v>
       </c>
       <c r="D13">
-        <v>5.625491171586539</v>
+        <v>8.4796459255053</v>
       </c>
       <c r="E13">
-        <v>9.431107851751547</v>
+        <v>6.353208658010241</v>
       </c>
       <c r="F13">
-        <v>72.04892020073628</v>
+        <v>82.29079463144203</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.32477806111901</v>
+        <v>7.05037341882729</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.15766434874583</v>
+        <v>5.630827545227723</v>
       </c>
       <c r="M13">
-        <v>21.18056012082152</v>
+        <v>14.66285234462253</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.49792476702428</v>
+        <v>27.06136447333574</v>
       </c>
       <c r="C14">
-        <v>9.807667801631878</v>
+        <v>15.99684337498375</v>
       </c>
       <c r="D14">
-        <v>5.597552559715967</v>
+        <v>8.405959681929689</v>
       </c>
       <c r="E14">
-        <v>9.428386076934611</v>
+        <v>6.338141857956485</v>
       </c>
       <c r="F14">
-        <v>71.88480713514173</v>
+        <v>81.66061510780771</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.3233365895254</v>
+        <v>7.043064327994742</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.16411569351641</v>
+        <v>5.633942614489218</v>
       </c>
       <c r="M14">
-        <v>21.18374033489757</v>
+        <v>14.5787579294458</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.48090080556677</v>
+        <v>26.89265322689238</v>
       </c>
       <c r="C15">
-        <v>9.780593313405596</v>
+        <v>15.88991838300547</v>
       </c>
       <c r="D15">
-        <v>5.580374175072746</v>
+        <v>8.360768053867407</v>
       </c>
       <c r="E15">
-        <v>9.426715460846314</v>
+        <v>6.328956498451134</v>
       </c>
       <c r="F15">
-        <v>71.78425687328121</v>
+        <v>81.274540585954</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.32245406228908</v>
+        <v>7.038623851060017</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.16810185952449</v>
+        <v>5.635957914991366</v>
       </c>
       <c r="M15">
-        <v>21.18579469056892</v>
+        <v>14.52753718780779</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.38606680719507</v>
+        <v>25.95878496846226</v>
       </c>
       <c r="C16">
-        <v>9.625523651884238</v>
+        <v>15.27326369172024</v>
       </c>
       <c r="D16">
-        <v>5.480949946971564</v>
+        <v>8.100822158948628</v>
       </c>
       <c r="E16">
-        <v>9.417088673912767</v>
+        <v>6.276929747252598</v>
       </c>
       <c r="F16">
-        <v>71.20774084045061</v>
+        <v>79.06027795386927</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.31740271275288</v>
+        <v>7.013702627193704</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.19147467410635</v>
+        <v>5.649102397640206</v>
       </c>
       <c r="M16">
-        <v>21.19919713880705</v>
+        <v>14.23831719370182</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.33034042811834</v>
+        <v>25.43178505936528</v>
       </c>
       <c r="C17">
-        <v>9.530535201172407</v>
+        <v>14.89112522513956</v>
       </c>
       <c r="D17">
-        <v>5.419099659470142</v>
+        <v>7.940386308893962</v>
       </c>
       <c r="E17">
-        <v>9.411135215614971</v>
+        <v>6.245501526839637</v>
       </c>
       <c r="F17">
-        <v>70.85390506350284</v>
+        <v>77.6995653918534</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.31430893642233</v>
+        <v>6.998847422705145</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.20628629167099</v>
+        <v>5.658540622566366</v>
       </c>
       <c r="M17">
-        <v>21.2088724095212</v>
+        <v>14.06460316164619</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.29919691311223</v>
+        <v>25.12848998400448</v>
       </c>
       <c r="C18">
-        <v>9.475979732572746</v>
+        <v>14.66978725147498</v>
       </c>
       <c r="D18">
-        <v>5.383218151834765</v>
+        <v>7.847716173501198</v>
       </c>
       <c r="E18">
-        <v>9.407693282455156</v>
+        <v>6.227583491631808</v>
       </c>
       <c r="F18">
-        <v>70.65037180860408</v>
+        <v>76.91581743445963</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.31253120320314</v>
+        <v>6.99044903994048</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.21497961817064</v>
+        <v>5.664455916989479</v>
       </c>
       <c r="M18">
-        <v>21.21497102568528</v>
+        <v>13.96600658632275</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.28880907440458</v>
+        <v>25.02576178704037</v>
       </c>
       <c r="C19">
-        <v>9.457524456576463</v>
+        <v>14.59456952932541</v>
       </c>
       <c r="D19">
-        <v>5.371017374245198</v>
+        <v>7.81626930566707</v>
       </c>
       <c r="E19">
-        <v>9.406524858460392</v>
+        <v>6.221542151732081</v>
       </c>
       <c r="F19">
-        <v>70.58146025939085</v>
+        <v>76.65024449624323</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.31192957672932</v>
+        <v>6.987629375564898</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.21795294534452</v>
+        <v>5.666540665113282</v>
       </c>
       <c r="M19">
-        <v>21.21712752355874</v>
+        <v>13.9328462147351</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.33617871176682</v>
+        <v>25.48790183466534</v>
       </c>
       <c r="C20">
-        <v>9.54063929237627</v>
+        <v>14.93196130032882</v>
       </c>
       <c r="D20">
-        <v>5.425715672132341</v>
+        <v>7.957504762652043</v>
       </c>
       <c r="E20">
-        <v>9.411770796634006</v>
+        <v>6.248830248023161</v>
       </c>
       <c r="F20">
-        <v>70.8915741466373</v>
+        <v>77.84452467012976</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.31463809259729</v>
+        <v>7.000413395275659</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.20469155791006</v>
+        <v>5.657485138864287</v>
       </c>
       <c r="M20">
-        <v>21.20778721868632</v>
+        <v>14.08295785243715</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.50613608926698</v>
+        <v>27.14219522648131</v>
       </c>
       <c r="C21">
-        <v>9.820651295967172</v>
+        <v>16.04805286302237</v>
       </c>
       <c r="D21">
-        <v>5.605772430462132</v>
+        <v>8.427614670246351</v>
       </c>
       <c r="E21">
-        <v>9.429186246581798</v>
+        <v>6.342558139662325</v>
       </c>
       <c r="F21">
-        <v>71.93301683302118</v>
+        <v>81.84572710477491</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.32375989728374</v>
+        <v>7.045203480877099</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.16221358198017</v>
+        <v>5.633005177576806</v>
       </c>
       <c r="M21">
-        <v>21.18278405710356</v>
+        <v>14.60339782518525</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.62512947706033</v>
+        <v>28.27835599034766</v>
       </c>
       <c r="C22">
-        <v>10.00379357003603</v>
+        <v>16.76670565074982</v>
       </c>
       <c r="D22">
-        <v>5.720553678965401</v>
+        <v>8.732219491132403</v>
       </c>
       <c r="E22">
-        <v>9.440413497980039</v>
+        <v>6.405703248978922</v>
       </c>
       <c r="F22">
-        <v>72.61260016147482</v>
+        <v>84.45684526768653</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.32973976651244</v>
+        <v>7.076075676046304</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.13599781575587</v>
+        <v>5.621754489067375</v>
       </c>
       <c r="M22">
-        <v>21.17120340558029</v>
+        <v>14.95636467189564</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.56090516870066</v>
+        <v>27.67287544808882</v>
       </c>
       <c r="C23">
-        <v>9.906061046901856</v>
+        <v>16.3839744668165</v>
       </c>
       <c r="D23">
-        <v>5.659565205970572</v>
+        <v>8.569839595152807</v>
       </c>
       <c r="E23">
-        <v>9.434435340030213</v>
+        <v>6.371802851475017</v>
       </c>
       <c r="F23">
-        <v>72.25003469091536</v>
+        <v>83.06325035247552</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.32654638898513</v>
+        <v>7.059436155757</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.14984839454324</v>
+        <v>5.627302676640284</v>
       </c>
       <c r="M23">
-        <v>21.17694831830817</v>
+        <v>14.76674295347998</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.33353643622205</v>
+        <v>25.46253244516099</v>
       </c>
       <c r="C24">
-        <v>9.536071056064698</v>
+        <v>14.91350445411502</v>
       </c>
       <c r="D24">
-        <v>5.422725576852026</v>
+        <v>7.949766868157912</v>
       </c>
       <c r="E24">
-        <v>9.411483510320135</v>
+        <v>6.247324869367009</v>
       </c>
       <c r="F24">
-        <v>70.87454428145514</v>
+        <v>77.77899317338448</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.31448927825693</v>
+        <v>6.999704979653003</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.20541198278487</v>
+        <v>5.657960803869411</v>
       </c>
       <c r="M24">
-        <v>21.20827616350069</v>
+        <v>14.07465573937405</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.1231050211084</v>
+        <v>23.24495574386204</v>
       </c>
       <c r="C25">
-        <v>9.140387942764203</v>
+        <v>13.26726953583208</v>
       </c>
       <c r="D25">
-        <v>5.155645772767656</v>
+        <v>7.265729436577768</v>
       </c>
       <c r="E25">
-        <v>9.386049453645583</v>
+        <v>6.118947165596706</v>
       </c>
       <c r="F25">
-        <v>69.39077857013342</v>
+        <v>72.03601685446438</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.301547929988</v>
+        <v>6.940739115545126</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.27200423760324</v>
+        <v>5.709469290161027</v>
       </c>
       <c r="M25">
-        <v>21.26246242929763</v>
+        <v>13.37830991836951</v>
       </c>
       <c r="N25">
         <v>0</v>
